--- a/Finflux Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Makerepayment1.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
+    <sheet name="Modify Transaction1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -113,22 +119,29 @@
   </si>
   <si>
     <t>TransactionType</t>
+  </si>
+  <si>
+    <t>OverDueTillDate</t>
+  </si>
+  <si>
+    <t>clickonsubmit</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,6 +160,41 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -181,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -198,13 +246,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +367,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,7 +615,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +644,7 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>500</v>
       </c>
     </row>
@@ -556,36 +659,35 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -594,22 +696,22 @@
         <v>5000</v>
       </c>
       <c r="B2" s="3">
-        <v>403.02</v>
+        <v>402.28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>4596.9799999999996</v>
+        <v>4597.72</v>
       </c>
       <c r="F2" s="6">
-        <v>1275.44</v>
+        <v>1276.18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>192.14</v>
+        <v>192.15</v>
       </c>
       <c r="B3" s="3">
         <v>96.98</v>
@@ -621,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>95.16</v>
+        <v>95.17</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -649,10 +751,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -676,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,56 +796,55 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="13" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -807,18 +908,18 @@
         <v>887.72</v>
       </c>
       <c r="L3" s="3">
-        <v>476.99</v>
+        <v>476.25</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3">
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <v>476.99</v>
+        <v>476.25</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
-        <v>410.73</v>
+        <v>411.47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -846,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="3">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="L4" s="3">
-        <v>23.01</v>
+        <v>23.75</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3">
@@ -879,13 +980,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>840.87</v>
+        <v>840.86</v>
       </c>
       <c r="G5" s="6">
-        <v>2480.67</v>
+        <v>2480.6799999999998</v>
       </c>
       <c r="H5" s="3">
-        <v>46.85</v>
+        <v>46.86</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -927,7 +1028,7 @@
         <v>863.25</v>
       </c>
       <c r="G6" s="6">
-        <v>1617.42</v>
+        <v>1617.43</v>
       </c>
       <c r="H6" s="3">
         <v>24.47</v>
@@ -972,7 +1073,7 @@
         <v>871.24</v>
       </c>
       <c r="G7" s="3">
-        <v>746.18</v>
+        <v>746.19</v>
       </c>
       <c r="H7" s="3">
         <v>16.48</v>
@@ -1014,7 +1115,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>746.18</v>
+        <v>746.19</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1029,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>753.54</v>
+        <v>753.55</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1043,7 +1144,7 @@
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
-        <v>753.54</v>
+        <v>753.55</v>
       </c>
     </row>
   </sheetData>
@@ -1056,23 +1157,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1110,72 +1211,114 @@
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="12">
         <v>666</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="13">
         <v>42064</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="12">
         <v>500</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="12">
         <v>403.02</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="12">
         <v>96.98</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>4596.9799999999996</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="12">
         <v>665</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="16">
         <v>5000</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>5000</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="18">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
